--- a/Data/Pradera Concepción/DatosBurgerKing.xlsx
+++ b/Data/Pradera Concepción/DatosBurgerKing.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11103"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20419C3B-B88B-0640-8748-11CB53C17871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viernes" sheetId="2" r:id="rId1"/>
     <sheet name="Martes" sheetId="3" r:id="rId2"/>
+    <sheet name="Domingo" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Salida</t>
   </si>
@@ -46,16 +48,37 @@
   <si>
     <t xml:space="preserve">Persona: Juan Pablo Estrada M y Valeria </t>
   </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Burguer King</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Pradera Concepcion</t>
+  </si>
+  <si>
+    <t>Centro Comercial:</t>
+  </si>
+  <si>
+    <t>Jupi P</t>
+  </si>
+  <si>
+    <t>Persona:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +92,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,38 +125,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CC1E112D-7A46-084F-8ECB-7B0E60F3E228}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="yyyy/mmm/dd\ hh:mm:ss"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -169,44 +245,274 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>101600</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>901700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Button 1" descr="Nuevo Ingreso" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457E4DB0-82E4-E74E-B571-7483E62FC344}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES_tradnl" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                </a:rPr>
+                <a:t>Nuevo Ingreso</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1270000" cy="495300"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4098" name="Button 2" descr="Nuevo Ingreso" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3731F1CD-C69F-E341-A37A-290A70CF9F33}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES_tradnl" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                </a:rPr>
+                <a:t>Llegada sin Cola</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>800100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>50800</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="1016000" cy="520700"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4099" name="Button 3" descr="Nuevo Ingreso" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D371F05-D940-A441-A2E6-B4E09EB0B470}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES_tradnl" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Calibri" pitchFamily="2" charset="0"/>
+                </a:rPr>
+                <a:t>Registrar Hora</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Registros3" displayName="Registros3" ref="A4:D36" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A4:D36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Registros3" displayName="Registros3" ref="A4:D36" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A4:D36" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ingreso" dataDxfId="8"/>
-    <tableColumn id="3" name="Llegada" dataDxfId="7"/>
-    <tableColumn id="4" name="Inicio" dataDxfId="6"/>
-    <tableColumn id="5" name="Salida" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ingreso" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Llegada" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Inicio" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Salida" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Registros33" displayName="Registros33" ref="A4:D24" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A4:D24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Registros33" displayName="Registros33" ref="A4:D24" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A4:D24" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ingreso" dataDxfId="3"/>
-    <tableColumn id="3" name="Llegada" dataDxfId="2"/>
-    <tableColumn id="4" name="Inicio" dataDxfId="1"/>
-    <tableColumn id="5" name="Salida" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingreso" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Llegada" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inicio" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Salida" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C8A30DB2-1EF6-B94A-BC4E-F732BD9712D3}" name="Registros35" displayName="Registros35" ref="A4:D52" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:D52" xr:uid="{B83A3420-1FB0-A54C-BD42-E05FDAD574BA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D52">
+    <sortCondition ref="B4:B52"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingreso" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Llegada" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Inicio" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Final" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -281,6 +587,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -316,6 +639,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -499,36 +839,36 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="1"/>
+    <col min="4" max="4" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -542,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -557,7 +897,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -572,7 +912,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -587,7 +927,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -602,7 +942,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -617,7 +957,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -632,7 +972,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>7</v>
       </c>
@@ -647,7 +987,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>8</v>
       </c>
@@ -662,7 +1002,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -677,7 +1017,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>10</v>
       </c>
@@ -692,7 +1032,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>11</v>
       </c>
@@ -707,7 +1047,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>12</v>
       </c>
@@ -722,7 +1062,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -737,7 +1077,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>14</v>
       </c>
@@ -752,7 +1092,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>15</v>
       </c>
@@ -767,7 +1107,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>16</v>
       </c>
@@ -782,7 +1122,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>17</v>
       </c>
@@ -797,7 +1137,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>18</v>
       </c>
@@ -812,7 +1152,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>19</v>
       </c>
@@ -827,7 +1167,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>20</v>
       </c>
@@ -842,7 +1182,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>21</v>
       </c>
@@ -857,7 +1197,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>22</v>
       </c>
@@ -872,7 +1212,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>23</v>
       </c>
@@ -887,7 +1227,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -902,7 +1242,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>25</v>
       </c>
@@ -917,7 +1257,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>26</v>
       </c>
@@ -932,7 +1272,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>27</v>
       </c>
@@ -947,7 +1287,7 @@
       </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>28</v>
       </c>
@@ -962,7 +1302,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>29</v>
       </c>
@@ -977,7 +1317,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>30</v>
       </c>
@@ -992,7 +1332,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>31</v>
       </c>
@@ -1007,7 +1347,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>32</v>
       </c>
@@ -1037,46 +1377,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5703125" style="1"/>
-    <col min="8" max="8" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.5703125" style="1"/>
+    <col min="1" max="1" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" style="1"/>
+    <col min="8" max="8" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1105,7 +1445,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1120,7 +1460,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1135,7 +1475,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1150,7 +1490,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1165,7 +1505,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1179,9 +1519,9 @@
         <v>43732.522546296299</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1196,7 +1536,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1211,7 +1551,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1226,7 +1566,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1241,7 +1581,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1256,7 +1596,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1271,7 +1611,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1286,7 +1626,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1301,7 +1641,7 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1316,7 +1656,7 @@
       </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1331,7 +1671,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1346,7 +1686,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1361,7 +1701,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1376,7 +1716,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1391,7 +1731,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1408,4 +1748,859 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A979ED5-6D49-164A-9890-B06CE247A445}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <v>43737.529050925928</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43737.529050925928</v>
+      </c>
+      <c r="D5" s="12">
+        <v>43737.530868055554</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <v>43737.529363425929</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43737.529641203706</v>
+      </c>
+      <c r="D6" s="12">
+        <v>43737.532349537039</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>43737.530104166668</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43737.530821759261</v>
+      </c>
+      <c r="D7" s="12">
+        <v>43737.53707175926</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>43737.533125000002</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43737.533842592595</v>
+      </c>
+      <c r="D8" s="12">
+        <v>43737.534895833334</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43737.534641203703</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43737.534861111111</v>
+      </c>
+      <c r="D9" s="12">
+        <v>43737.537800925929</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43737.535914351851</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43737.535914351851</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43737.539641203701</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43737.535937499997</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43737.536863425928</v>
+      </c>
+      <c r="D11" s="12">
+        <v>43737.539664351854</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>43737.536782407406</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43737.538182870368</v>
+      </c>
+      <c r="D12" s="12">
+        <v>43737.539074074077</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <v>43737.540185185186</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43737.540185185186</v>
+      </c>
+      <c r="D13" s="12">
+        <v>43737.541377314818</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <v>43737.540208333332</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43737.540208333332</v>
+      </c>
+      <c r="D14" s="12">
+        <v>43737.541400462964</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="12">
+        <v>43737.540567129632</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43737.541331018518</v>
+      </c>
+      <c r="D15" s="12">
+        <v>43737.542696759258</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12">
+        <v>43737.544062499997</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43737.544062499997</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43737.546157407407</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12">
+        <v>43737.545810185184</v>
+      </c>
+      <c r="C17" s="12">
+        <v>43737.545810185184</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43737.549953703703</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12">
+        <v>43737.54614583333</v>
+      </c>
+      <c r="C18" s="12">
+        <v>43737.54614583333</v>
+      </c>
+      <c r="D18" s="12">
+        <v>43737.548449074071</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12">
+        <v>43737.546203703707</v>
+      </c>
+      <c r="C19" s="12">
+        <v>43737.546875</v>
+      </c>
+      <c r="D19" s="12">
+        <v>43737.548483796294</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12">
+        <v>43737.547488425924</v>
+      </c>
+      <c r="C20" s="12">
+        <v>43737.547488425924</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43737.550810185188</v>
+      </c>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12">
+        <v>43737.547754629632</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43737.548634259256</v>
+      </c>
+      <c r="D21" s="10">
+        <v>43737.552164351851</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12">
+        <v>43737.547754629632</v>
+      </c>
+      <c r="C22" s="12">
+        <v>43737.550023148149</v>
+      </c>
+      <c r="D22" s="10">
+        <v>43737.55431712963</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="12">
+        <v>43737.547766203701</v>
+      </c>
+      <c r="C23" s="12">
+        <v>43737.550763888888</v>
+      </c>
+      <c r="D23" s="10">
+        <v>43737.554340277777</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12">
+        <v>43737.548495370371</v>
+      </c>
+      <c r="C24" s="12">
+        <v>43737.548495370371</v>
+      </c>
+      <c r="D24" s="12">
+        <v>43737.552048611113</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="12">
+        <v>43737.548854166664</v>
+      </c>
+      <c r="C25" s="12">
+        <v>43737.552800925929</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43737.553541666668</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="12">
+        <v>43737.551412037035</v>
+      </c>
+      <c r="C26" s="12">
+        <v>43737.553425925929</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43737.555578703701</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12">
+        <v>43737.553171296298</v>
+      </c>
+      <c r="C27" s="12">
+        <v>43737.553171296298</v>
+      </c>
+      <c r="D27" s="12">
+        <v>43737.554652777777</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="12">
+        <v>43737.555543981478</v>
+      </c>
+      <c r="C28" s="12">
+        <v>43737.555543981478</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43737.558078703703</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="12">
+        <v>43737.558634259258</v>
+      </c>
+      <c r="C29" s="12">
+        <v>43737.558634259258</v>
+      </c>
+      <c r="D29" s="10">
+        <v>43737.561655092592</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="12">
+        <v>43737.559884259259</v>
+      </c>
+      <c r="C30" s="12">
+        <v>43737.559884259259</v>
+      </c>
+      <c r="D30" s="10">
+        <v>43737.562372685185</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="12">
+        <v>43737.560289351852</v>
+      </c>
+      <c r="C31" s="12">
+        <v>43737.560289351852</v>
+      </c>
+      <c r="D31" s="12">
+        <v>43737.562881944446</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="12">
+        <v>43737.565497685187</v>
+      </c>
+      <c r="C32" s="12">
+        <v>43737.565497685187</v>
+      </c>
+      <c r="D32" s="10">
+        <v>43737.567372685182</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="B33" s="12">
+        <v>43737.567002314812</v>
+      </c>
+      <c r="C33" s="12">
+        <v>43737.567002314812</v>
+      </c>
+      <c r="D33" s="12">
+        <v>43737.570150462961</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="B34" s="12">
+        <v>43737.567499999997</v>
+      </c>
+      <c r="C34" s="12">
+        <v>43737.567499999997</v>
+      </c>
+      <c r="D34" s="10">
+        <v>43737.571458333332</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="12">
+        <v>43737.567499999997</v>
+      </c>
+      <c r="C35" s="12">
+        <v>43737.567499999997</v>
+      </c>
+      <c r="D35" s="10">
+        <v>43737.570706018516</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12">
+        <v>43737.56759259259</v>
+      </c>
+      <c r="C36" s="12">
+        <v>43737.568506944444</v>
+      </c>
+      <c r="D36" s="12">
+        <v>43737.570173611108</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="B37" s="12">
+        <v>43737.568472222221</v>
+      </c>
+      <c r="C37" s="12">
+        <v>43737.569201388891</v>
+      </c>
+      <c r="D37" s="12">
+        <v>43737.569444444445</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="12">
+        <v>43737.570636574077</v>
+      </c>
+      <c r="C38" s="12">
+        <v>43737.570636574077</v>
+      </c>
+      <c r="D38" s="12">
+        <v>43737.570729166669</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="B39" s="12">
+        <v>43737.571435185186</v>
+      </c>
+      <c r="C39" s="12">
+        <v>43737.571435185186</v>
+      </c>
+      <c r="D39" s="10">
+        <v>43737.573298611111</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="12">
+        <v>43737.571932870371</v>
+      </c>
+      <c r="C40" s="12">
+        <v>43737.572627314818</v>
+      </c>
+      <c r="D40" s="10">
+        <v>43737.576319444444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="12">
+        <v>43737.572245370371</v>
+      </c>
+      <c r="C41" s="12">
+        <v>43737.572245370371</v>
+      </c>
+      <c r="D41" s="12">
+        <v>43737.573553240742</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="12">
+        <v>43737.572245370371</v>
+      </c>
+      <c r="C42" s="12">
+        <v>43737.573171296295</v>
+      </c>
+      <c r="D42" s="12">
+        <v>43737.574999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12">
+        <v>43737.57435185185</v>
+      </c>
+      <c r="C43" s="12">
+        <v>43737.57471064815</v>
+      </c>
+      <c r="D43" s="10">
+        <v>43737.575821759259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="12">
+        <v>43737.574745370373</v>
+      </c>
+      <c r="C44" s="12">
+        <v>43737.574745370373</v>
+      </c>
+      <c r="D44" s="12">
+        <v>43737.579837962963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="12">
+        <v>43737.576215277775</v>
+      </c>
+      <c r="C45" s="12">
+        <v>43737.576215277775</v>
+      </c>
+      <c r="D45" s="10">
+        <v>43737.579918981479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="12">
+        <v>43737.576319444444</v>
+      </c>
+      <c r="C46" s="12">
+        <v>43737.576215277775</v>
+      </c>
+      <c r="D46" s="10">
+        <v>43737.579930555556</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="12">
+        <v>43737.57640046296</v>
+      </c>
+      <c r="C47" s="12">
+        <v>43737.576215277775</v>
+      </c>
+      <c r="D47" s="10">
+        <v>43737.579942129632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="B48" s="12">
+        <v>43737.576666666668</v>
+      </c>
+      <c r="C48" s="12">
+        <v>43737.578240740739</v>
+      </c>
+      <c r="D48" s="10">
+        <v>43737.581111111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
+        <v>45</v>
+      </c>
+      <c r="B49" s="12">
+        <v>43737.577604166669</v>
+      </c>
+      <c r="C49" s="12">
+        <v>43737.577604166669</v>
+      </c>
+      <c r="D49" s="12">
+        <v>43737.578148148146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="B50" s="12">
+        <v>43737.578657407408</v>
+      </c>
+      <c r="C50" s="12">
+        <v>43737.579976851855</v>
+      </c>
+      <c r="D50" s="10">
+        <v>43737.582858796297</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
+        <v>47</v>
+      </c>
+      <c r="B51" s="12">
+        <v>43737.578796296293</v>
+      </c>
+      <c r="C51" s="12">
+        <v>43737.578796296293</v>
+      </c>
+      <c r="D51" s="12">
+        <v>43737.582615740743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
+        <v>48</v>
+      </c>
+      <c r="B52" s="12">
+        <v>43737.58</v>
+      </c>
+      <c r="C52" s="12">
+        <v>43737.58048611111</v>
+      </c>
+      <c r="D52" s="12">
+        <v>43737.582187499997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4097" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Nuevo_Ingreso" altText="Nuevo Ingreso">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>101600</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>50800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>901700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4098" r:id="rId4" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Nuevo_Llegada_Inicio" altText="Nuevo Ingreso">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>76200</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>635000</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="4099" r:id="rId5" name="Button 3">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!Insertar_Hora_D" altText="Nuevo Ingreso">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>800100</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>50800</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>63500</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>165100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Data/Pradera Concepción/DatosBurgerKing.xlsx
+++ b/Data/Pradera Concepción/DatosBurgerKing.xlsx
@@ -3,16 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11103"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20419C3B-B88B-0640-8748-11CB53C17871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472283C-B98E-3C46-8169-D2C8B62791E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Viernes" sheetId="2" r:id="rId1"/>
     <sheet name="Martes" sheetId="3" r:id="rId2"/>
     <sheet name="Domingo" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -149,9 +159,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -167,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -282,7 +292,7 @@
                   <a14:compatExt spid="_x0000_s4097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457E4DB0-82E4-E74E-B571-7483E62FC344}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -330,14 +340,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1270000" cy="495300"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>635000</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4098" name="Button 2" descr="Nuevo Ingreso" hidden="1">
@@ -346,7 +361,7 @@
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3731F1CD-C69F-E341-A37A-290A70CF9F33}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -388,20 +403,25 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>800100</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="1016000" cy="520700"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4099" name="Button 3" descr="Nuevo Ingreso" hidden="1">
@@ -410,7 +430,7 @@
                   <a14:compatExt spid="_x0000_s4099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D371F05-D940-A441-A2E6-B4E09EB0B470}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -452,7 +472,7 @@
           </xdr:txBody>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -834,9 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,23 +870,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="14"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -890,10 +910,10 @@
         <v>43735.535462962966</v>
       </c>
       <c r="C5" s="4">
-        <v>43733.535462962966</v>
+        <v>43735.535462962966</v>
       </c>
       <c r="D5" s="4">
-        <v>43733.536087962966</v>
+        <v>43735.536087962966</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -905,10 +925,10 @@
         <v>43735.536145833335</v>
       </c>
       <c r="C6" s="4">
-        <v>43733.536145833335</v>
+        <v>43735.536145833335</v>
       </c>
       <c r="D6" s="4">
-        <v>43733.536597222221</v>
+        <v>43735.536597222221</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1398,23 +1418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="14"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -1754,19 +1774,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A979ED5-6D49-164A-9890-B06CE247A445}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23" style="10" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="12.5" style="9"/>
+    <col min="1" max="1" width="9.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="12.5" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1774,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="15"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1783,738 +1803,738 @@
         <v>14</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>43737.529050925928</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>43737.529050925928</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>43737.530868055554</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>43737.529363425929</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>43737.529641203706</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>43737.532349537039</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>43737.530104166668</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>43737.530821759261</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>43737.53707175926</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>43737.533125000002</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>43737.533842592595</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>43737.534895833334</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>43737.534641203703</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>43737.534861111111</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>43737.537800925929</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>43737.535914351851</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>43737.535914351851</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>43737.539641203701</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>43737.535937499997</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>43737.536863425928</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>43737.539664351854</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>43737.536782407406</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>43737.538182870368</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>43737.539074074077</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>43737.540185185186</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>43737.540185185186</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>43737.541377314818</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>43737.540208333332</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>43737.540208333332</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>43737.541400462964</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>43737.540567129632</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>43737.541331018518</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>43737.542696759258</v>
       </c>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>43737.544062499997</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>43737.544062499997</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>43737.546157407407</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
+      <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>43737.545810185184</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>43737.545810185184</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>43737.549953703703</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13">
+      <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>43737.54614583333</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>43737.54614583333</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>43737.548449074071</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>43737.546203703707</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>43737.546875</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>43737.548483796294</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13">
+      <c r="A20" s="12">
         <v>16</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>43737.547488425924</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>43737.547488425924</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43737.550810185188</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>43737.547754629632</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>43737.548634259256</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>43737.552164351851</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>43737.547754629632</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>43737.550023148149</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43737.55431712963</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>43737.547766203701</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>43737.550763888888</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>43737.554340277777</v>
       </c>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>43737.548495370371</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>43737.548495370371</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>43737.552048611113</v>
       </c>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <v>21</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>43737.548854166664</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>43737.552800925929</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43737.553541666668</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+      <c r="A26" s="12">
         <v>22</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>43737.551412037035</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>43737.553425925929</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>43737.555578703701</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13">
+      <c r="A27" s="12">
         <v>23</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>43737.553171296298</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>43737.553171296298</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>43737.554652777777</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>24</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>43737.555543981478</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>43737.555543981478</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>43737.558078703703</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13">
+      <c r="A29" s="12">
         <v>25</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>43737.558634259258</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>43737.558634259258</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>43737.561655092592</v>
       </c>
-      <c r="E29" s="9"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>26</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>43737.559884259259</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>43737.559884259259</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>43737.562372685185</v>
       </c>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>27</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>43737.560289351852</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>43737.560289351852</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>43737.562881944446</v>
       </c>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>28</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>43737.565497685187</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>43737.565497685187</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>43737.567372685182</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>29</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>43737.567002314812</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>43737.567002314812</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>43737.570150462961</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>30</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>43737.567499999997</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>43737.567499999997</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>43737.571458333332</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>31</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>43737.567499999997</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>43737.567499999997</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>43737.570706018516</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>32</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>43737.56759259259</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <v>43737.568506944444</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>43737.570173611108</v>
       </c>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>33</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>43737.568472222221</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <v>43737.569201388891</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>43737.569444444445</v>
       </c>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>34</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>43737.570636574077</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>43737.570636574077</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>43737.570729166669</v>
       </c>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+      <c r="A39" s="12">
         <v>35</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>43737.571435185186</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <v>43737.571435185186</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>43737.573298611111</v>
       </c>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>36</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>43737.571932870371</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <v>43737.572627314818</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>43737.576319444444</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="12">
         <v>37</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>43737.572245370371</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>43737.572245370371</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>43737.573553240742</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>38</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>43737.572245370371</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <v>43737.573171296295</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>43737.574999999997</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>39</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>43737.57435185185</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <v>43737.57471064815</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>43737.575821759259</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>40</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>43737.574745370373</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>43737.574745370373</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>43737.579837962963</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>41</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>43737.576215277775</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <v>43737.576215277775</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>43737.579918981479</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>42</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>43737.576319444444</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <v>43737.576215277775</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>43737.579930555556</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>43</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>43737.57640046296</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>43737.576215277775</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>43737.579942129632</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>44</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>43737.576666666668</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="11">
         <v>43737.578240740739</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>43737.581111111111</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>45</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>43737.577604166669</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="11">
         <v>43737.577604166669</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>43737.578148148146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>46</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>43737.578657407408</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="11">
         <v>43737.579976851855</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>43737.582858796297</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>47</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>43737.578796296293</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="11">
         <v>43737.578796296293</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>43737.582615740743</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>48</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>43737.58</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="11">
         <v>43737.58048611111</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>43737.582187499997</v>
       </c>
     </row>
